--- a/biology/Zoologie/Dymecodon/Dymecodon.xlsx
+++ b/biology/Zoologie/Dymecodon/Dymecodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dymecodon est un genre de Mammifères de la famille des Talpidés (Talpidae). Il ne reste actuellement qu'une espèce de ces taupes. 
 </t>
@@ -511,22 +523,128 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae ; tribu des Urotrichini[1].
-Traditionnellement, les espèces de la famille des Talpidae sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle[2].
-Liste d'espèces
-Selon Mammal Species of the World (version 3, 2005)  (25 janvier 2016)[3], ITIS      (25 janvier 2016)[4], Catalogue of Life                                   (25 janvier 2016)[5]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classification plus détaillée selon le Système d'information taxonomique intégré (SITI ou ITIS en anglais) : Règne : Animalia ; sous-règne : Bilateria ; infra-règne : Deuterostomia ; Embranchement : Chordata ; Sous-embranchement : Vertebrata ; infra-embranchement : Gnathostomata ; super-classe : Tetrapoda ; Classe : Mammalia ; Sous-classe : Theria ; infra-classe : Eutheria ; ordre : Soricomorpha ; famille des Talpidae ; sous-famille des Talpinae ; tribu des Urotrichini.
+Traditionnellement, les espèces de la famille des Talpidae sont classées dans l'ordre des Insectivora, un regroupement qui est progressivement abandonné au XXIe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dymecodon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dymecodon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (25 janvier 2016), ITIS      (25 janvier 2016), Catalogue of Life                                   (25 janvier 2016):
 Dymecodon pilirostris True, 1886
-Selon Paleobiology Database                   (25 janvier 2016)[6] :
+Selon Paleobiology Database                   (25 janvier 2016) :
 Urotrichus dolichochir
-Urotrichus giganteus
-Publication et histoire
-Ce genre a été décrit pour la première fois en 1886 par le zoologiste américain Frederick William True (1858-1914) :
+Urotrichus giganteus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dymecodon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dymecodon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication et histoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1886 par le zoologiste américain Frederick William True (1858-1914) :
 True, 1886 : (en) Description of a new genus and species of mole, Dymecodon pilirostris, from Japan. Proceedings of the United States National Museum, vol. 9, p. 97-98.
-Dymecodon a été considéré comme un synonyme de Urotrichus par Hutterer, 1993 mais Shinohara et al., 2003[7] ont démontré son existence distincte.
-Synonymes
-Dimecodon Coues, 1889</t>
+Dymecodon a été considéré comme un synonyme de Urotrichus par Hutterer, 1993 mais Shinohara et al., 2003 ont démontré son existence distincte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dymecodon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dymecodon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dimecodon Coues, 1889</t>
         </is>
       </c>
     </row>
